--- a/ig/ch-elm/ValueSet-ch-elm-status.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-trialuse</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-13T14:50:01+02:00</t>
+    <t>2023-11-16T14:46:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This CH ELM value set includes the codes for the laboratory specialties.</t>
+    <t>This CH ELM value set includes the codes for the laboratory specialities.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/ch-elm/ValueSet-ch-elm-status.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-16T14:46:54+01:00</t>
+    <t>2024-01-31T12:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-status.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T12:59:55+01:00</t>
+    <t>2024-02-27T13:26:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-status.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T13:26:20+01:00</t>
+    <t>2024-03-28T10:46:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-status.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T10:46:20+01:00</t>
+    <t>2024-05-17T13:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Federal Office of Public Health FOPH (https://www.bag.admin.ch/bag/en/home/das-bag/kontakt-standort.html)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-elm/ValueSet-ch-elm-status.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-status.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:59:23+00:00</t>
+    <t>2024-08-20T16:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-status.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-status.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from TaskStatus" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-status.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-status.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-status.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-status.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-status.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-status.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-status.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-status.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/ValueSet-ch-elm-status.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-status.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,10 +108,19 @@
     <t>in-progress</t>
   </si>
   <si>
+    <t>In Progress</t>
+  </si>
+  <si>
     <t>failed</t>
   </si>
   <si>
+    <t>Failed</t>
+  </si>
+  <si>
     <t>completed</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
   <si>
     <t/>
@@ -412,39 +421,39 @@
         <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/ValueSet-ch-elm-status.xlsx
+++ b/ig/ch-elm/ValueSet-ch-elm-status.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
